--- a/Project4_34202676/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Project4_34202676/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Desktop\Code\CMPG-323-Project4---34202676\Project4_34202676\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA89BE-21E8-486A-9ADF-9E20AF7A4D83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F7B8E-B67D-43F7-A509-06FC26D6BA06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Project4_34202676/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Project4_34202676/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Desktop\Code\CMPG-323-Project4---34202676\Project4_34202676\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F7B8E-B67D-43F7-A509-06FC26D6BA06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E36EB9-6128-407F-8576-EA631C52BEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2265" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>Wilson Jones Ledger-Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Logitech Wireless Performance Mouse MX for PC and </t>
-  </si>
-  <si>
     <t>Ampad Poly Cover Wirebound Steno Book</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>Logitech Wireless Performance Mouse MX for PC and</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,6 +777,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -794,6 +797,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -811,6 +817,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -828,6 +837,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -845,6 +857,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -862,6 +877,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -879,6 +897,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -896,6 +917,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -913,6 +937,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -930,6 +957,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -947,6 +977,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -964,6 +997,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -980,6 +1016,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -991,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,6 +1079,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1057,6 +1099,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1074,6 +1119,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1091,6 +1139,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1108,6 +1159,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1125,6 +1179,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1142,6 +1199,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1159,6 +1219,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1176,6 +1239,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1193,6 +1259,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1210,6 +1279,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1227,6 +1299,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1244,6 +1319,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1261,6 +1339,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1278,8 +1359,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1295,8 +1379,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1312,8 +1399,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1329,8 +1419,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1346,8 +1439,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1363,8 +1459,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1380,8 +1479,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1397,8 +1499,11 @@
       <c r="E23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1414,8 +1519,11 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1431,8 +1539,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1448,8 +1559,11 @@
       <c r="E26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1465,8 +1579,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1482,8 +1599,11 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1499,8 +1619,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1516,8 +1639,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1533,8 +1659,11 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1550,8 +1679,11 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1567,8 +1699,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1584,8 +1719,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1601,8 +1739,11 @@
       <c r="E35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1618,8 +1759,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1635,8 +1779,11 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1652,8 +1799,11 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1669,8 +1819,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -1686,8 +1839,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -1701,6 +1857,9 @@
         <v>2</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1713,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,6 +1915,9 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1770,6 +1932,9 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1784,6 +1949,9 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1798,6 +1966,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1812,6 +1983,9 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1826,6 +2000,9 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1840,6 +2017,9 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1854,6 +2034,9 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1868,6 +2051,9 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1882,6 +2068,9 @@
       <c r="D11" t="s">
         <v>52</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1896,6 +2085,9 @@
       <c r="D12" t="s">
         <v>53</v>
       </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1910,6 +2102,9 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1924,6 +2119,9 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1937,6 +2135,9 @@
       </c>
       <c r="D15" t="s">
         <v>56</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1948,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +2176,7 @@
         <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,6 +2192,9 @@
       <c r="D2">
         <v>950</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2005,6 +2209,9 @@
       <c r="D3">
         <v>61</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2019,6 +2226,9 @@
       <c r="D4">
         <v>281</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2033,6 +2243,9 @@
       <c r="D5">
         <v>502</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2047,6 +2260,9 @@
       <c r="D6">
         <v>621</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2061,6 +2277,9 @@
       <c r="D7">
         <v>765</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2075,6 +2294,9 @@
       <c r="D8">
         <v>709</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2089,6 +2311,9 @@
       <c r="D9">
         <v>485</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2103,6 +2328,9 @@
       <c r="D10">
         <v>158</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2117,6 +2345,9 @@
       <c r="D11">
         <v>485</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2131,6 +2362,9 @@
       <c r="D12">
         <v>322</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2145,6 +2379,9 @@
       <c r="D13">
         <v>51</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2159,6 +2396,9 @@
       <c r="D14">
         <v>152</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2173,6 +2413,9 @@
       <c r="D15">
         <v>634</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2187,13 +2430,16 @@
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -2201,13 +2447,16 @@
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2215,13 +2464,16 @@
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -2229,13 +2481,16 @@
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -2243,13 +2498,16 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -2257,13 +2515,16 @@
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -2271,13 +2532,16 @@
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -2285,13 +2549,16 @@
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
@@ -2299,13 +2566,16 @@
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -2313,13 +2583,16 @@
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -2327,8 +2600,11 @@
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2341,13 +2617,16 @@
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2355,13 +2634,16 @@
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2369,13 +2651,16 @@
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -2383,13 +2668,16 @@
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -2397,13 +2685,16 @@
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -2411,13 +2702,16 @@
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -2425,13 +2719,16 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -2439,13 +2736,16 @@
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -2453,13 +2753,16 @@
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -2467,13 +2770,16 @@
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -2481,13 +2787,16 @@
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -2495,13 +2804,16 @@
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
@@ -2509,19 +2821,25 @@
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
